--- a/test_scripts/piles_example.xlsx
+++ b/test_scripts/piles_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>example</t>
   </si>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -411,6 +411,29 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
